--- a/windturbinetest.xlsx
+++ b/windturbinetest.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\floating_wind_challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C35EF11-08DE-42FF-BC7C-2786F5F8595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA4192-2316-4CDC-BC21-F933CE1C0B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -246,143 +248,10 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Pitch 4.1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$23:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41FF-4422-8E89-3FA122E822A2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>PITCH 5</c:v>
+            <c:v>Pitch setting 5 test 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -410,10 +279,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$18</c:f>
+              <c:f>Sheet1!$A$4:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -458,16 +327,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$18</c:f>
+              <c:f>Sheet1!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.9</c:v>
                 </c:pt>
@@ -512,6 +390,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,15 +411,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>pitch 3</c:v>
+            <c:v>Pitch setting 4 test 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -543,11 +430,339 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41FF-4422-8E89-3FA122E822A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pitch setting 4 test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$73:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$73:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC76-435A-9459-983E689F014C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Pitch setting 3 test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="96000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -652,9 +867,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>Yeeted pitch 3</c:v>
+            <c:v>Pitch setting 3 test 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -810,199 +1025,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-41FF-4422-8E89-3FA122E822A2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Pitch 4.2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$73:$A$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.71</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.92</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.48</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3699999999999992</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.83</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.77</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$73:$C$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC76-435A-9459-983E689F014C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1161,6 +1183,1224 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Force [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346139312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Thrust</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> coefficient</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pitch setting 5 test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.27488525620983634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16039657035507021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18320838566874986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14414892867651308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15121369697987463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15675895938066828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15852667601489986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15797831722282554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13650498231142602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11912982781949455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11985447863209839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1193078368966304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10656909991844421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10616718057196275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1057556584620454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11324813285349966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11123810807427764</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12255109166199242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E63-4780-9C4B-A572B283B668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pitch setting 4 test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$23:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.22151630348839974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32279496512446698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30700906044525156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33634750024519722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31031647301046522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28660089002082539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2906322393606498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27081997238198668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29340863648710264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27229674930170183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28465438675123367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27908927873356959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28350723448844573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E63-4780-9C4B-A572B283B668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pitch setting 4 test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$73:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$73:$K$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.23328364825842837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24514142943802292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24829881454649438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33797040500759379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37178004684975824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35645057443190803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33592845349213685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32274171826922904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31031647301046522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29986446149620855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28872496528984554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30916415081601545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29602274832137954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27533732520659437</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27723933566926173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29349912175565857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28851406319686534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29311991348765604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2967330484344709</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2986162585463325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29803867384758242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29618742438607609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30193200763018219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E63-4780-9C4B-A572B283B668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Pitch setting 3 test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$37:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.22151630348839974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32481558595107612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36841087253430194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38439714313736828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37287503489281698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40165579038027066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42484797211199038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89578558607593572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88741366286749879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89314088013515569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8986680304990774</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86385497284675494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E63-4780-9C4B-A572B283B668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Pitch setting 3 test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$99:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$99:$K$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.33099260616973208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31037351818311798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34125165183845169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37178004684975824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3581065562888896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37962376736429648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40521024908008674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86079087717282587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86947875763427918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85900163568267252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86229099351955896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86478901603614522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8699878053869734</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83988338506553606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80842990281156757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81695031825822539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81378225257384185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E63-4780-9C4B-A572B283B668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="346139312"/>
+        <c:axId val="346144560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="346139312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wind</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> speed [m/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346144560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="346144560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" sz="700"/>
+                  <a:t>T  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" sz="1000"/>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1308,6 +2548,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1863,20 +3143,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167987</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472787</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1896,6 +3692,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15585</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB63D986-DFD9-480F-8A32-377F0BCBF523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2169,16 +4003,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +4054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2246,7 +4080,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2257,7 +4091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.75</v>
       </c>
@@ -2291,7 +4125,7 @@
         <v>0.27488525620983634</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.22</v>
       </c>
@@ -2325,7 +4159,7 @@
         <v>0.16039657035507021</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.69</v>
       </c>
@@ -2359,7 +4193,7 @@
         <v>0.18320838566874986</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.16</v>
       </c>
@@ -2393,7 +4227,7 @@
         <v>0.14414892867651308</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.6900000000000004</v>
       </c>
@@ -2427,7 +4261,7 @@
         <v>0.15121369697987463</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.15</v>
       </c>
@@ -2461,7 +4295,7 @@
         <v>0.15675895938066828</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.61</v>
       </c>
@@ -2495,7 +4329,7 @@
         <v>0.15852667601489986</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.07</v>
       </c>
@@ -2529,7 +4363,7 @@
         <v>0.15797831722282554</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6.53</v>
       </c>
@@ -2563,7 +4397,7 @@
         <v>0.13650498231142602</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.99</v>
       </c>
@@ -2597,7 +4431,7 @@
         <v>0.11912982781949455</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.45</v>
       </c>
@@ -2631,7 +4465,7 @@
         <v>0.11985447863209839</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.92</v>
       </c>
@@ -2665,7 +4499,7 @@
         <v>0.1193078368966304</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.3800000000000008</v>
       </c>
@@ -2699,7 +4533,7 @@
         <v>0.10656909991844421</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.85</v>
       </c>
@@ -2733,7 +4567,7 @@
         <v>0.10616718057196275</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9.3000000000000007</v>
       </c>
@@ -2767,7 +4601,7 @@
         <v>0.1057556584620454</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9.77</v>
       </c>
@@ -2805,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10.23</v>
       </c>
@@ -2843,7 +4677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10.74</v>
       </c>
@@ -2877,12 +4711,12 @@
         <v>0.12255109166199242</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.74</v>
       </c>
@@ -2916,7 +4750,7 @@
         <v>0.22151630348839974</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.21</v>
       </c>
@@ -2950,7 +4784,7 @@
         <v>0.32279496512446698</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.68</v>
       </c>
@@ -2984,7 +4818,7 @@
         <v>0.30700906044525156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.16</v>
       </c>
@@ -3018,7 +4852,7 @@
         <v>0.33634750024519722</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4.63</v>
       </c>
@@ -3052,7 +4886,7 @@
         <v>0.31031647301046522</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.1100000000000003</v>
       </c>
@@ -3086,7 +4920,7 @@
         <v>0.28660089002082539</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.61</v>
       </c>
@@ -3120,7 +4954,7 @@
         <v>0.2906322393606498</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.07</v>
       </c>
@@ -3154,7 +4988,7 @@
         <v>0.27081997238198668</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.52</v>
       </c>
@@ -3188,7 +5022,7 @@
         <v>0.29340863648710264</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.99</v>
       </c>
@@ -3222,7 +5056,7 @@
         <v>0.27229674930170183</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.45</v>
       </c>
@@ -3256,7 +5090,7 @@
         <v>0.28465438675123367</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.91</v>
       </c>
@@ -3290,7 +5124,7 @@
         <v>0.27908927873356959</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8.39</v>
       </c>
@@ -3324,7 +5158,7 @@
         <v>0.28350723448844573</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2.74</v>
       </c>
@@ -3358,7 +5192,7 @@
         <v>0.22151630348839974</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.2</v>
       </c>
@@ -3392,7 +5226,7 @@
         <v>0.32481558595107612</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.68</v>
       </c>
@@ -3426,7 +5260,7 @@
         <v>0.36841087253430194</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.16</v>
       </c>
@@ -3460,7 +5294,7 @@
         <v>0.38439714313736828</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.4800000000000004</v>
       </c>
@@ -3494,7 +5328,7 @@
         <v>0.37287503489281698</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4.55</v>
       </c>
@@ -3528,7 +5362,7 @@
         <v>0.40165579038027066</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4.6399999999999997</v>
       </c>
@@ -3562,7 +5396,7 @@
         <v>0.42484797211199038</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4.72</v>
       </c>
@@ -3596,7 +5430,7 @@
         <v>0.89578558607593572</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4.84</v>
       </c>
@@ -3630,7 +5464,7 @@
         <v>0.88741366286749879</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.92</v>
       </c>
@@ -3664,7 +5498,7 @@
         <v>0.89314088013515569</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.09</v>
       </c>
@@ -3698,7 +5532,7 @@
         <v>0.8986680304990774</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.55</v>
       </c>
@@ -3720,7 +5554,7 @@
         <v>0.86385497284675494</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.39</v>
       </c>
@@ -3728,12 +5562,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.71</v>
       </c>
@@ -3767,7 +5601,7 @@
         <v>0.22644786972801431</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3.19</v>
       </c>
@@ -3801,7 +5635,7 @@
         <v>0.1634276196253486</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3.66</v>
       </c>
@@ -3835,7 +5669,7 @@
         <v>0.12414940727324718</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.1500000000000004</v>
       </c>
@@ -3869,7 +5703,7 @@
         <v>9.6562972859312493E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.62</v>
       </c>
@@ -3903,7 +5737,7 @@
         <v>7.7915322054942282E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.09</v>
       </c>
@@ -3937,7 +5771,7 @@
         <v>6.4190573607076945E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.56</v>
       </c>
@@ -3971,12 +5805,12 @@
         <v>5.3796898454709585E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6.02</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9.44</v>
       </c>
@@ -3984,7 +5818,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3.75</v>
       </c>
@@ -3992,7 +5826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.63</v>
       </c>
@@ -4012,7 +5846,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.0999999999999996</v>
       </c>
@@ -4026,7 +5860,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.03</v>
       </c>
@@ -4040,7 +5874,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7.44</v>
       </c>
@@ -4057,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.67</v>
       </c>
@@ -4091,7 +5925,7 @@
         <v>0.23328364825842837</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3.19</v>
       </c>
@@ -4125,7 +5959,7 @@
         <v>0.24514142943802292</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3.66</v>
       </c>
@@ -4159,7 +5993,7 @@
         <v>0.24829881454649438</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.1500000000000004</v>
       </c>
@@ -4193,7 +6027,7 @@
         <v>0.33797040500759379</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.2300000000000004</v>
       </c>
@@ -4227,7 +6061,7 @@
         <v>0.37178004684975824</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.32</v>
       </c>
@@ -4261,7 +6095,7 @@
         <v>0.35645057443190803</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.45</v>
       </c>
@@ -4295,7 +6129,7 @@
         <v>0.33592845349213685</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.54</v>
       </c>
@@ -4329,7 +6163,7 @@
         <v>0.32274171826922904</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.63</v>
       </c>
@@ -4363,7 +6197,7 @@
         <v>0.31031647301046522</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.71</v>
       </c>
@@ -4397,7 +6231,7 @@
         <v>0.29986446149620855</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.8</v>
       </c>
@@ -4431,7 +6265,7 @@
         <v>0.28872496528984554</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4.92</v>
       </c>
@@ -4465,7 +6299,7 @@
         <v>0.30916415081601545</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.3</v>
       </c>
@@ -4499,7 +6333,7 @@
         <v>0.29602274832137954</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6.02</v>
       </c>
@@ -4533,7 +6367,7 @@
         <v>0.27533732520659437</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6.48</v>
       </c>
@@ -4567,7 +6401,7 @@
         <v>0.27723933566926173</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.94</v>
       </c>
@@ -4601,7 +6435,7 @@
         <v>0.29349912175565857</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7.4</v>
       </c>
@@ -4635,7 +6469,7 @@
         <v>0.28851406319686534</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7.9</v>
       </c>
@@ -4669,7 +6503,7 @@
         <v>0.29311991348765604</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8.3699999999999992</v>
       </c>
@@ -4703,7 +6537,7 @@
         <v>0.2967330484344709</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8.83</v>
       </c>
@@ -4737,7 +6571,7 @@
         <v>0.2986162585463325</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9.3000000000000007</v>
       </c>
@@ -4771,7 +6605,7 @@
         <v>0.29803867384758242</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9.77</v>
       </c>
@@ -4805,7 +6639,7 @@
         <v>0.29618742438607609</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10.23</v>
       </c>
@@ -4839,7 +6673,7 @@
         <v>0.30193200763018219</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3.17</v>
       </c>
@@ -4873,7 +6707,7 @@
         <v>0.33099260616973208</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3.66</v>
       </c>
@@ -4907,7 +6741,7 @@
         <v>0.31037351818311798</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4.13</v>
       </c>
@@ -4941,7 +6775,7 @@
         <v>0.34125165183845169</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4.2300000000000004</v>
       </c>
@@ -4975,7 +6809,7 @@
         <v>0.37178004684975824</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4.3099999999999996</v>
       </c>
@@ -5009,7 +6843,7 @@
         <v>0.3581065562888896</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4.4400000000000004</v>
       </c>
@@ -5043,7 +6877,7 @@
         <v>0.37962376736429648</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4.53</v>
       </c>
@@ -5077,7 +6911,7 @@
         <v>0.40521024908008674</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4.6100000000000003</v>
       </c>
@@ -5111,7 +6945,7 @@
         <v>0.86079087717282587</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4.6900000000000004</v>
       </c>
@@ -5145,7 +6979,7 @@
         <v>0.86947875763427918</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4.82</v>
       </c>
@@ -5179,7 +7013,7 @@
         <v>0.85900163568267252</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4.91</v>
       </c>
@@ -5213,7 +7047,7 @@
         <v>0.86229099351955896</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -5247,7 +7081,7 @@
         <v>0.86478901603614522</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5.08</v>
       </c>
@@ -5281,7 +7115,7 @@
         <v>0.8699878053869734</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5.54</v>
       </c>
@@ -5315,7 +7149,7 @@
         <v>0.83988338506553606</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -5349,7 +7183,7 @@
         <v>0.80842990281156757</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6.46</v>
       </c>
@@ -5383,7 +7217,7 @@
         <v>0.81695031825822539</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6.93</v>
       </c>
@@ -5417,7 +7251,7 @@
         <v>0.81378225257384185</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7.43</v>
       </c>
@@ -5455,6 +7289,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53e8bd78-ea7f-4e15-bf21-16207dd18471">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="efa2cb4e-9744-49fa-9850-933431ac2480" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE1A98F1529AF64BB0B9C14A10EBC3E5" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d345c582cd044b7ed16b6ea6510c2fa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53e8bd78-ea7f-4e15-bf21-16207dd18471" xmlns:ns3="efa2cb4e-9744-49fa-9850-933431ac2480" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4db70d6f4e75a843b642f5e006d115eb" ns2:_="" ns3:_="">
     <xsd:import namespace="53e8bd78-ea7f-4e15-bf21-16207dd18471"/>
@@ -5651,27 +7505,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D54CAD-8D13-4E67-8EC7-2D03CCEBE747}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53e8bd78-ea7f-4e15-bf21-16207dd18471">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="efa2cb4e-9744-49fa-9850-933431ac2480" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{338AAFE8-CB15-4E90-B080-50C77EF53C00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="53e8bd78-ea7f-4e15-bf21-16207dd18471"/>
+    <ds:schemaRef ds:uri="efa2cb4e-9744-49fa-9850-933431ac2480"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F78BD1EC-A656-487B-B631-B6BFF27DFB17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5688,23 +7541,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D54CAD-8D13-4E67-8EC7-2D03CCEBE747}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{338AAFE8-CB15-4E90-B080-50C77EF53C00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="53e8bd78-ea7f-4e15-bf21-16207dd18471"/>
-    <ds:schemaRef ds:uri="efa2cb4e-9744-49fa-9850-933431ac2480"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>